--- a/no_results.xlsx
+++ b/no_results.xlsx
@@ -1,37 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -50,21 +46,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -330,13 +385,2144 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B177"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>iphone 12 pro max negro</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>iphone 12 pro max oro</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>iphone 12 pro max plata</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>iphone 12 pro negro</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>iphone 12 pro oro</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>iphone 12 pro plata</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>iphone 12 púrpura</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>iphone 12 mini púrpura</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>iphone 12 mini rojo</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>iphone xr amarillo</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>iphone se rojo</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>iphone 11 pro max gris</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>iphone 11 pro max dorado</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>iphone 11 pro max verde</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>iphone 11 pro max plata</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>iphone 11 pro gris</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>iphone 11 pro dorado</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>iphone 11 pro verde</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>iphone 11 pro plata</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>iphone xs max dorado</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>iphone xs dorado</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>iphone x plata</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>iphone 8 plus dorado</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>iphone 8 plus rojo</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>iphone 8 rojo</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>iphone 7 negro</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>iphone 7 dorado</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>iphone 7 rosa</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>iphone 7 rojo</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>iphone se 2016 gris</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>iphone se 2016 plata</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>iphone se 2016 dorado</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>iphone se 2016 rosa</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>iphone 6s plus plata</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>iphone 6s plus dorado</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>iphone 6s plus rosa</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>iphone 6s dorado</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>iphone 6s rosa</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>samsung galaxy a12 nacho  negro</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>samsung galaxy a12 nacho  azul</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>samsung galaxy a12 nacho  rojo</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>samsung galaxy f22 azul</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>samsung galaxy a22 negro</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>samsung galaxy a22 verde</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>samsung galaxy f52 5g blanco</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>samsung galaxy quantum 2 negro</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>samsung galaxy quantum 2 blanco</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>samsung galaxy quantum 2 violeta</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>samsung galaxy f12 azul</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>samsung galaxy f12 negro</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>samsung galaxy f02s azul</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>samsung galaxy f02s blanco</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>samsung galaxy f02s negro</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>samsung galaxy a52 5g negro</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>samsung galaxy a52 5g blanco</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>samsung galaxy a52 5g violeta</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>samsung galaxy a52 5g azul</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>samsung samsung galaxy xcover 5 negro</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>samsung galaxy m62 verde</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>samsung galaxy m62 gris</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>samsung galaxy m62 azul</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>samsung galaxy f62 verde</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>samsung galaxy f62 gris</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>samsung galaxy s21 ultra 5g negro</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>samsung galaxy s21 ultra 5g plata</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>samsung galaxy s21 ultra 5g gris</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>samsung galaxy s21 ultra 5g azul</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>samsung galaxy s21 ultra 5g marrón</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>samsung galaxy s21 ultra 5g azul</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>samsung galaxy s21 ultra 5g marino</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>samsung galaxy s21+ 5g rojo</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>samsung galaxy s21 5g gris</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>samsung galaxy s21 5g blanco</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>samsung galaxy s21 5g violeta</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>samsung galaxy s21 5g rosado</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>samsung galaxy a32 5g negro</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>samsung galaxy a32 5g blanco</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>samsung galaxy a32 5g violeta</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>samsung galaxy a12 rojo</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>samsung galaxy m02 gris</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>samsung galaxy m02 azul</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>samsung galaxy m02 rojo</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>samsung galaxy a02 azul</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>samsung galaxy a02s rojo</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>samsung galaxy a02s azul</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>samsung galaxy m21s azul</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>samsung galaxy m21s negro</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>samsung galaxy f41 negro</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>samsung galaxy f41 azul</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>samsung galaxy s20 fe 5g verde</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>samsung galaxy s20 fe 5g azul</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>samsung galaxy s20 fe 5g rojo</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>samsung galaxy s20 fe 5g naranja</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>samsung galaxy s20 fe verde</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>samsung galaxy s20 fe azul</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>samsung galaxy s20 fe blanco</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>samsung galaxy s20 fe rojo</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>samsung galaxy s20 fe naranja</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>samsung galaxy a42 5g blanco</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>samsung galaxy a42 5g gris</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>samsung galaxy z fold2 5g negro</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>samsung galaxy z fold2 5g marrón</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>samsung galaxy z fold2 5g gris</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>samsung galaxy note20 ultra 5g negro</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>samsung galaxy note20 ultra bronce</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>samsung galaxy note20 ultra blanco</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>samsung galaxy note20 5g rojo</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>samsung galaxy note20 5g azul</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>samsung galaxy note20 rojo</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>samsung galaxy z flip 5g gris</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>samsung galaxy m31s azul</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>samsung galaxy m01s azul</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>samsung galaxy m01s gris</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>samsung galaxy m01 core negro</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>samsung galaxy m01 core azul</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>samsung galaxy m01 core rojo</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>samsung galaxy a01 core azul</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>samsung galaxy a01 core rojo</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>samsung galaxy a71 5g uw negro</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>samsung galaxy m01 negro</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>samsung galaxy m01 azul</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>samsung galaxy m01 rojo</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>samsung galaxy a21s rojo</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>samsung galaxy j2 core oro</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>samsung galaxy j2 core azul</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>samsung galaxy a quantum negro</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>samsung galaxy a quantum azul</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>samsung galaxy a71 5g plata</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>samsung galaxy a71 5g azul</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>samsung galaxy a51 5g negro</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>samsung galaxy a51 5g blanco</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>samsung galaxy a51 5g rosa</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>samsung galaxy m11 negro</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>samsung galaxy m11 violeta</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>samsung galaxy a31 rojo</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>samsung galaxy a31 blanco</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>samsung galaxy a41 negro</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>samsung galaxy a41 plata</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>samsung galaxy a41 rojo</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>samsung galaxy a11 negro</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>samsung galaxy a11 blanco</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>samsung galaxy a11 azul</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>samsung galaxy a11 rojo</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>samsung galaxy m31 azul</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>samsung galaxy m31 rojo</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>samsung galaxy s20 ultra 5g negro</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>samsung galaxy s20 ultra 5g blanco</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>samsung galaxy s20 ultra blanco</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>samsung galaxy s20+ 5g gris</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>samsung galaxy s20+ azul</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>samsung galaxy s20+ rojo</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>samsung galaxy s20+ claro</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>samsung galaxy s20 5g rojo</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>samsung galaxy s20 rosa</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>samsung galaxy z flip negro</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>samsung galaxy z flip morado</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>samsung galaxy z flip oro</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>samsung galaxy note 10 lite negro</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>samsung galaxy note 10 lite rojo</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>samsung galaxy a01 azul</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>samsung galaxy a01 rojo</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>samsung galaxy a71 azul</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>samsung galaxy a71 rosa</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>samsung galaxy a51 rosa</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>samsung galaxy a70s negro</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>samsung galaxy a20s verde</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>samsung galaxy m30s azul</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>samsung galaxy m30s blanco</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>samsung galaxy m10s azul</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>samsung galaxy fold azul</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>samsung galaxy a90 5g blanco</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>samsung galaxy a90 5g negro</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>samsung galaxy a30s verde</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>samsung galaxy a30s violeta</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>samsung galaxy a50s negro</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>samsung galaxy a50s blanco</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>samsung galaxy a50s violeta</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>something_here</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>